--- a/dataanalysis/data/predictions/1200/08011157_1159.xlsx
+++ b/dataanalysis/data/predictions/1200/08011157_1159.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="147">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-01</t>
   </si>
   <si>
@@ -452,12 +455,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -815,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,19 +921,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-4.05</v>
@@ -954,7 +954,7 @@
         <v>46512.31</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K2">
         <v>14</v>
@@ -995,8 +995,23 @@
       <c r="W2">
         <v>-0.41</v>
       </c>
+      <c r="X2">
+        <v>4.67</v>
+      </c>
+      <c r="Y2">
+        <v>5.61</v>
+      </c>
+      <c r="Z2">
+        <v>2.94</v>
+      </c>
       <c r="AC2" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1004,22 +1019,25 @@
       <c r="AG2">
         <v>3.769222974777222</v>
       </c>
-      <c r="AH2" t="s">
-        <v>146</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.82</v>
@@ -1037,7 +1055,7 @@
         <v>257285.43</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1078,8 +1096,23 @@
       <c r="W3">
         <v>-1.24</v>
       </c>
+      <c r="X3">
+        <v>-1.01</v>
+      </c>
+      <c r="Y3">
+        <v>12.07</v>
+      </c>
+      <c r="Z3">
+        <v>1.51</v>
+      </c>
       <c r="AC3" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1087,22 +1120,25 @@
       <c r="AG3">
         <v>4.622104167938232</v>
       </c>
-      <c r="AH3" t="s">
-        <v>146</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300086</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.81</v>
@@ -1120,7 +1156,7 @@
         <v>53945.77</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1161,8 +1197,23 @@
       <c r="W4">
         <v>-0.77</v>
       </c>
+      <c r="X4">
+        <v>1.03</v>
+      </c>
+      <c r="Y4">
+        <v>7.96</v>
+      </c>
+      <c r="Z4">
+        <v>-1.36</v>
+      </c>
       <c r="AC4" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1170,22 +1221,25 @@
       <c r="AG4">
         <v>2.388720989227295</v>
       </c>
-      <c r="AH4" t="s">
-        <v>146</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300149</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.93</v>
@@ -1203,7 +1257,7 @@
         <v>90809.92</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1244,8 +1298,23 @@
       <c r="W5">
         <v>-0.51</v>
       </c>
+      <c r="X5">
+        <v>-0.83</v>
+      </c>
+      <c r="Y5">
+        <v>13.4</v>
+      </c>
+      <c r="Z5">
+        <v>-2.05</v>
+      </c>
       <c r="AC5" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1253,22 +1322,25 @@
       <c r="AG5">
         <v>1.010534524917603</v>
       </c>
-      <c r="AH5" t="s">
-        <v>146</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300158</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-5.22</v>
@@ -1286,7 +1358,7 @@
         <v>106099.85</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1327,8 +1399,23 @@
       <c r="W6">
         <v>-0.43</v>
       </c>
+      <c r="X6">
+        <v>0.61</v>
+      </c>
+      <c r="Y6">
+        <v>8.44</v>
+      </c>
+      <c r="Z6">
+        <v>3.3</v>
+      </c>
       <c r="AC6" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1336,22 +1423,25 @@
       <c r="AG6">
         <v>5.785186767578125</v>
       </c>
-      <c r="AH6" t="s">
-        <v>146</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300188</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.38</v>
@@ -1369,7 +1459,7 @@
         <v>64074.02</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1410,8 +1500,23 @@
       <c r="W7">
         <v>0.36</v>
       </c>
+      <c r="X7">
+        <v>-2.8</v>
+      </c>
+      <c r="Y7">
+        <v>18.61</v>
+      </c>
+      <c r="Z7">
+        <v>6.89</v>
+      </c>
       <c r="AC7" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1419,22 +1524,25 @@
       <c r="AG7">
         <v>-0.154836967587471</v>
       </c>
-      <c r="AH7" t="s">
-        <v>146</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.32</v>
@@ -1452,7 +1560,7 @@
         <v>220600.91</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1493,8 +1601,23 @@
       <c r="W8">
         <v>-0.67</v>
       </c>
+      <c r="X8">
+        <v>19.98</v>
+      </c>
+      <c r="Y8">
+        <v>24.32</v>
+      </c>
+      <c r="Z8">
+        <v>17.49</v>
+      </c>
       <c r="AC8" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1502,22 +1625,25 @@
       <c r="AG8">
         <v>2.553995847702026</v>
       </c>
-      <c r="AH8" t="s">
-        <v>146</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300238</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>7.7</v>
@@ -1535,7 +1661,7 @@
         <v>69287.24000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1576,8 +1702,23 @@
       <c r="W9">
         <v>0.64</v>
       </c>
+      <c r="X9">
+        <v>-1.89</v>
+      </c>
+      <c r="Y9">
+        <v>18.85</v>
+      </c>
+      <c r="Z9">
+        <v>0.59</v>
+      </c>
       <c r="AC9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1585,22 +1726,25 @@
       <c r="AG9">
         <v>3.207534551620483</v>
       </c>
-      <c r="AH9" t="s">
-        <v>146</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300254</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2.79</v>
@@ -1618,7 +1762,7 @@
         <v>59622.46</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1659,8 +1803,23 @@
       <c r="W10">
         <v>0.49</v>
       </c>
+      <c r="X10">
+        <v>-2.89</v>
+      </c>
+      <c r="Y10">
+        <v>13.13</v>
+      </c>
+      <c r="Z10">
+        <v>-6.08</v>
+      </c>
       <c r="AC10" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1668,22 +1827,25 @@
       <c r="AG10">
         <v>8.210711479187012</v>
       </c>
-      <c r="AH10" t="s">
-        <v>146</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300261</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.36</v>
@@ -1701,7 +1863,7 @@
         <v>52807.52</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1742,8 +1904,23 @@
       <c r="W11">
         <v>-0.72</v>
       </c>
+      <c r="X11">
+        <v>-2.66</v>
+      </c>
+      <c r="Y11">
+        <v>8.75</v>
+      </c>
+      <c r="Z11">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="AC11" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1751,22 +1928,25 @@
       <c r="AG11">
         <v>0.4917670488357544</v>
       </c>
-      <c r="AH11" t="s">
-        <v>146</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300267</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-5.97</v>
@@ -1784,7 +1964,7 @@
         <v>77055.35000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1825,8 +2005,23 @@
       <c r="W12">
         <v>-1.02</v>
       </c>
+      <c r="X12">
+        <v>1.18</v>
+      </c>
+      <c r="Y12">
+        <v>4.38</v>
+      </c>
+      <c r="Z12">
+        <v>-0.68</v>
+      </c>
       <c r="AC12" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1834,22 +2029,25 @@
       <c r="AG12">
         <v>4.509663105010986</v>
       </c>
-      <c r="AH12" t="s">
-        <v>146</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300322</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-4.82</v>
@@ -1867,7 +2065,7 @@
         <v>172644.65</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1908,8 +2106,23 @@
       <c r="W13">
         <v>-2.32</v>
       </c>
+      <c r="X13">
+        <v>1.09</v>
+      </c>
+      <c r="Y13">
+        <v>19.87</v>
+      </c>
+      <c r="Z13">
+        <v>4.74</v>
+      </c>
       <c r="AC13" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1917,22 +2130,25 @@
       <c r="AG13">
         <v>1.394108295440674</v>
       </c>
-      <c r="AH13" t="s">
-        <v>146</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300378</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>5.04</v>
@@ -1950,7 +2166,7 @@
         <v>152563.25</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -1991,8 +2207,23 @@
       <c r="W14">
         <v>0.19</v>
       </c>
+      <c r="X14">
+        <v>6.61</v>
+      </c>
+      <c r="Y14">
+        <v>66.56</v>
+      </c>
+      <c r="Z14">
+        <v>20.58</v>
+      </c>
       <c r="AC14" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2000,22 +2231,25 @@
       <c r="AG14">
         <v>3.153824329376221</v>
       </c>
-      <c r="AH14" t="s">
-        <v>146</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300410</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.88</v>
@@ -2033,7 +2267,7 @@
         <v>57794.91</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2074,8 +2308,23 @@
       <c r="W15">
         <v>0.83</v>
       </c>
+      <c r="X15">
+        <v>-4.41</v>
+      </c>
+      <c r="Y15">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>-2.22</v>
+      </c>
       <c r="AC15" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2083,22 +2332,25 @@
       <c r="AG15">
         <v>3.027960062026978</v>
       </c>
-      <c r="AH15" t="s">
-        <v>146</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300414</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>5.28</v>
@@ -2116,7 +2368,7 @@
         <v>70368.42</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -2157,8 +2409,23 @@
       <c r="W16">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X16">
+        <v>-2.25</v>
+      </c>
+      <c r="Y16">
+        <v>15.68</v>
+      </c>
+      <c r="Z16">
+        <v>-0.38</v>
+      </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2166,22 +2433,25 @@
       <c r="AG16">
         <v>1.675710678100586</v>
       </c>
-      <c r="AH16" t="s">
-        <v>146</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300436</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-6.86</v>
@@ -2199,7 +2469,7 @@
         <v>144788.1</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17">
         <v>22</v>
@@ -2240,8 +2510,23 @@
       <c r="W17">
         <v>-0.27</v>
       </c>
+      <c r="X17">
+        <v>18.18</v>
+      </c>
+      <c r="Y17">
+        <v>122.06</v>
+      </c>
+      <c r="Z17">
+        <v>14.45</v>
+      </c>
       <c r="AC17" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2249,22 +2534,25 @@
       <c r="AG17">
         <v>3.59847617149353</v>
       </c>
-      <c r="AH17" t="s">
-        <v>146</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>18.64</v>
@@ -2282,7 +2570,7 @@
         <v>78686.3</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2323,8 +2611,23 @@
       <c r="W18">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X18">
+        <v>19.99</v>
+      </c>
+      <c r="Y18">
+        <v>16.99</v>
+      </c>
+      <c r="Z18">
+        <v>21.36</v>
+      </c>
       <c r="AC18" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2332,22 +2635,25 @@
       <c r="AG18">
         <v>2.682335376739502</v>
       </c>
-      <c r="AH18" t="s">
-        <v>147</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300505</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>5.1</v>
@@ -2365,7 +2671,7 @@
         <v>76613.46000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2406,8 +2712,23 @@
       <c r="W19">
         <v>0.78</v>
       </c>
+      <c r="X19">
+        <v>1.3</v>
+      </c>
+      <c r="Y19">
+        <v>22.06</v>
+      </c>
+      <c r="Z19">
+        <v>0.96</v>
+      </c>
       <c r="AC19" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2415,22 +2736,25 @@
       <c r="AG19">
         <v>0.2309755682945251</v>
       </c>
-      <c r="AH19" t="s">
-        <v>146</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300528</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-7.06</v>
@@ -2448,7 +2772,7 @@
         <v>111249.61</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2489,8 +2813,23 @@
       <c r="W20">
         <v>-1.21</v>
       </c>
+      <c r="X20">
+        <v>-11.33</v>
+      </c>
+      <c r="Y20">
+        <v>20.89</v>
+      </c>
+      <c r="Z20">
+        <v>-3.2</v>
+      </c>
       <c r="AC20" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2498,22 +2837,25 @@
       <c r="AG20">
         <v>2.922925233840942</v>
       </c>
-      <c r="AH20" t="s">
-        <v>146</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300539</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-8.300000000000001</v>
@@ -2531,7 +2873,7 @@
         <v>47923.77</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2572,8 +2914,23 @@
       <c r="W21">
         <v>-0.62</v>
       </c>
+      <c r="X21">
+        <v>0.93</v>
+      </c>
+      <c r="Y21">
+        <v>24.35</v>
+      </c>
+      <c r="Z21">
+        <v>-4.96</v>
+      </c>
       <c r="AC21" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2581,22 +2938,25 @@
       <c r="AG21">
         <v>4.106313705444336</v>
       </c>
-      <c r="AH21" t="s">
-        <v>146</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300588</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.53</v>
@@ -2614,7 +2974,7 @@
         <v>36291.74</v>
       </c>
       <c r="J22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2655,8 +3015,23 @@
       <c r="W22">
         <v>0.33</v>
       </c>
+      <c r="X22">
+        <v>-1.34</v>
+      </c>
+      <c r="Y22">
+        <v>19.7</v>
+      </c>
+      <c r="Z22">
+        <v>-0.76</v>
+      </c>
       <c r="AC22" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2664,22 +3039,25 @@
       <c r="AG22">
         <v>3.53822660446167</v>
       </c>
-      <c r="AH22" t="s">
-        <v>146</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300609</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.1</v>
@@ -2697,7 +3075,7 @@
         <v>14839.69</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2738,8 +3116,23 @@
       <c r="W23">
         <v>0.08</v>
       </c>
+      <c r="X23">
+        <v>10.89</v>
+      </c>
+      <c r="Y23">
+        <v>47.79</v>
+      </c>
+      <c r="Z23">
+        <v>14.33</v>
+      </c>
       <c r="AC23" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2747,22 +3140,25 @@
       <c r="AG23">
         <v>3.53779673576355</v>
       </c>
-      <c r="AH23" t="s">
-        <v>146</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300683</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.32</v>
@@ -2780,7 +3176,7 @@
         <v>60548.36</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2821,8 +3217,23 @@
       <c r="W24">
         <v>0.31</v>
       </c>
+      <c r="X24">
+        <v>-2.37</v>
+      </c>
+      <c r="Y24">
+        <v>60.19</v>
+      </c>
+      <c r="Z24">
+        <v>6.51</v>
+      </c>
       <c r="AC24" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2830,22 +3241,25 @@
       <c r="AG24">
         <v>0.9634103178977966</v>
       </c>
-      <c r="AH24" t="s">
-        <v>146</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300684</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.83</v>
@@ -2863,7 +3277,7 @@
         <v>70852.03</v>
       </c>
       <c r="J25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2904,8 +3318,23 @@
       <c r="W25">
         <v>-0.29</v>
       </c>
+      <c r="X25">
+        <v>-0.76</v>
+      </c>
+      <c r="Y25">
+        <v>31.24</v>
+      </c>
+      <c r="Z25">
+        <v>2.23</v>
+      </c>
       <c r="AC25" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2913,22 +3342,25 @@
       <c r="AG25">
         <v>1.320162415504456</v>
       </c>
-      <c r="AH25" t="s">
-        <v>146</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300706</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-6.35</v>
@@ -2946,7 +3378,7 @@
         <v>63204.29</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -2987,8 +3419,23 @@
       <c r="W26">
         <v>-1.3</v>
       </c>
+      <c r="X26">
+        <v>3.53</v>
+      </c>
+      <c r="Y26">
+        <v>35.51</v>
+      </c>
+      <c r="Z26">
+        <v>2.9</v>
+      </c>
       <c r="AC26" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2996,22 +3443,25 @@
       <c r="AG26">
         <v>1.857968807220459</v>
       </c>
-      <c r="AH26" t="s">
-        <v>146</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300731</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.45</v>
@@ -3029,7 +3479,7 @@
         <v>67166.39999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3070,8 +3520,23 @@
       <c r="W27">
         <v>-1.85</v>
       </c>
+      <c r="X27">
+        <v>12.95</v>
+      </c>
+      <c r="Y27">
+        <v>38.6</v>
+      </c>
+      <c r="Z27">
+        <v>15.22</v>
+      </c>
       <c r="AC27" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3079,22 +3544,25 @@
       <c r="AG27">
         <v>4.099738597869873</v>
       </c>
-      <c r="AH27" t="s">
-        <v>146</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300732</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-5.41</v>
@@ -3112,7 +3580,7 @@
         <v>63546.32</v>
       </c>
       <c r="J28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3153,8 +3621,23 @@
       <c r="W28">
         <v>-0.45</v>
       </c>
+      <c r="X28">
+        <v>-3.7</v>
+      </c>
+      <c r="Y28">
+        <v>10.98</v>
+      </c>
+      <c r="Z28">
+        <v>1.29</v>
+      </c>
       <c r="AC28" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3162,22 +3645,25 @@
       <c r="AG28">
         <v>0.8900936841964722</v>
       </c>
-      <c r="AH28" t="s">
-        <v>146</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300733</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>8.84</v>
@@ -3195,7 +3681,7 @@
         <v>92035.24000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3236,8 +3722,23 @@
       <c r="W29">
         <v>-0.64</v>
       </c>
+      <c r="X29">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>24.35</v>
+      </c>
+      <c r="Z29">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC29" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3245,22 +3746,25 @@
       <c r="AG29">
         <v>3.17886757850647</v>
       </c>
-      <c r="AH29" t="s">
-        <v>146</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300747</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.58</v>
@@ -3278,7 +3782,7 @@
         <v>71212.34</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K30">
         <v>12</v>
@@ -3319,8 +3823,23 @@
       <c r="W30">
         <v>0.47</v>
       </c>
+      <c r="X30">
+        <v>5.55</v>
+      </c>
+      <c r="Y30">
+        <v>31.65</v>
+      </c>
+      <c r="Z30">
+        <v>4.91</v>
+      </c>
       <c r="AC30" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3328,22 +3847,25 @@
       <c r="AG30">
         <v>4.155014991760254</v>
       </c>
-      <c r="AH30" t="s">
-        <v>146</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300841</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.34</v>
@@ -3361,7 +3883,7 @@
         <v>57894.76</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3402,8 +3924,23 @@
       <c r="W31">
         <v>0.49</v>
       </c>
+      <c r="X31">
+        <v>-2.67</v>
+      </c>
+      <c r="Y31">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="Z31">
+        <v>-0.82</v>
+      </c>
       <c r="AC31" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3411,22 +3948,25 @@
       <c r="AG31">
         <v>3.453736782073975</v>
       </c>
-      <c r="AH31" t="s">
-        <v>147</v>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300869</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.08</v>
@@ -3444,7 +3984,7 @@
         <v>34235.97</v>
       </c>
       <c r="J32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -3485,8 +4025,23 @@
       <c r="W32">
         <v>0.51</v>
       </c>
+      <c r="X32">
+        <v>3.74</v>
+      </c>
+      <c r="Y32">
+        <v>20.85</v>
+      </c>
+      <c r="Z32">
+        <v>2.86</v>
+      </c>
       <c r="AC32" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3494,22 +4049,25 @@
       <c r="AG32">
         <v>5.541146278381348</v>
       </c>
-      <c r="AH32" t="s">
-        <v>146</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300877</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>7.09</v>
@@ -3527,7 +4085,7 @@
         <v>22660.17</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3568,8 +4126,23 @@
       <c r="W33">
         <v>0.31</v>
       </c>
+      <c r="X33">
+        <v>-2.82</v>
+      </c>
+      <c r="Y33">
+        <v>30.65</v>
+      </c>
+      <c r="Z33">
+        <v>-5.61</v>
+      </c>
       <c r="AC33" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3577,22 +4150,25 @@
       <c r="AG33">
         <v>3.426030397415161</v>
       </c>
-      <c r="AH33" t="s">
-        <v>146</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300885</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-4.76</v>
@@ -3610,7 +4186,7 @@
         <v>49918.26</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3651,8 +4227,23 @@
       <c r="W34">
         <v>-0.27</v>
       </c>
+      <c r="X34">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="Y34">
+        <v>23.95</v>
+      </c>
+      <c r="Z34">
+        <v>8.76</v>
+      </c>
       <c r="AC34" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3660,22 +4251,25 @@
       <c r="AG34">
         <v>3.621393442153931</v>
       </c>
-      <c r="AH34" t="s">
-        <v>146</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300950</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>14.21</v>
@@ -3693,7 +4287,7 @@
         <v>73698.75999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3734,8 +4328,23 @@
       <c r="W35">
         <v>1.08</v>
       </c>
+      <c r="X35">
+        <v>-3.39</v>
+      </c>
+      <c r="Y35">
+        <v>33.73</v>
+      </c>
+      <c r="Z35">
+        <v>-0.76</v>
+      </c>
       <c r="AC35" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3743,22 +4352,25 @@
       <c r="AG35">
         <v>1.172668814659119</v>
       </c>
-      <c r="AH35" t="s">
-        <v>146</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300965</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-3.14</v>
@@ -3776,7 +4388,7 @@
         <v>22368.58</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3817,8 +4429,23 @@
       <c r="W36">
         <v>-0.35</v>
       </c>
+      <c r="X36">
+        <v>20</v>
+      </c>
+      <c r="Y36">
+        <v>76.09</v>
+      </c>
+      <c r="Z36">
+        <v>19.02</v>
+      </c>
       <c r="AC36" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3826,22 +4453,25 @@
       <c r="AG36">
         <v>7.356410503387451</v>
       </c>
-      <c r="AH36" t="s">
-        <v>146</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300966</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>13.61</v>
@@ -3859,7 +4489,7 @@
         <v>65594.5</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3900,8 +4530,23 @@
       <c r="W37">
         <v>-3.44</v>
       </c>
+      <c r="X37">
+        <v>6.18</v>
+      </c>
+      <c r="Y37">
+        <v>29.77</v>
+      </c>
+      <c r="Z37">
+        <v>6.47</v>
+      </c>
       <c r="AC37" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3909,22 +4554,25 @@
       <c r="AG37">
         <v>4.420732021331787</v>
       </c>
-      <c r="AH37" t="s">
-        <v>146</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301007</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.62</v>
@@ -3942,7 +4590,7 @@
         <v>42351.82</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3983,8 +4631,23 @@
       <c r="W38">
         <v>0.86</v>
       </c>
+      <c r="X38">
+        <v>4.13</v>
+      </c>
+      <c r="Y38">
+        <v>39.38</v>
+      </c>
+      <c r="Z38">
+        <v>1.6</v>
+      </c>
       <c r="AC38" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3992,22 +4655,25 @@
       <c r="AG38">
         <v>4.924883365631104</v>
       </c>
-      <c r="AH38" t="s">
-        <v>146</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301038</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.58</v>
@@ -4025,7 +4691,7 @@
         <v>56009.66</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -4066,8 +4732,23 @@
       <c r="W39">
         <v>-0.01</v>
       </c>
+      <c r="X39">
+        <v>-3.8</v>
+      </c>
+      <c r="Y39">
+        <v>33.25</v>
+      </c>
+      <c r="Z39">
+        <v>3.91</v>
+      </c>
       <c r="AC39" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4075,22 +4756,25 @@
       <c r="AG39">
         <v>-0.1906784772872925</v>
       </c>
-      <c r="AH39" t="s">
-        <v>146</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301095</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.76</v>
@@ -4108,7 +4792,7 @@
         <v>28128.79</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4149,8 +4833,23 @@
       <c r="W40">
         <v>-0.32</v>
       </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>63.42</v>
+      </c>
+      <c r="Z40">
+        <v>1.42</v>
+      </c>
       <c r="AC40" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4158,22 +4857,25 @@
       <c r="AG40">
         <v>2.144340038299561</v>
       </c>
-      <c r="AH40" t="s">
-        <v>146</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301150</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.58</v>
@@ -4191,7 +4893,7 @@
         <v>42166.85</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K41">
         <v>6</v>
@@ -4232,8 +4934,23 @@
       <c r="W41">
         <v>-0.38</v>
       </c>
+      <c r="X41">
+        <v>3.78</v>
+      </c>
+      <c r="Y41">
+        <v>30.08</v>
+      </c>
+      <c r="Z41">
+        <v>7.01</v>
+      </c>
       <c r="AC41" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4241,22 +4958,25 @@
       <c r="AG41">
         <v>2.227107286453247</v>
       </c>
-      <c r="AH41" t="s">
-        <v>146</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301200</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.16</v>
@@ -4274,7 +4994,7 @@
         <v>59155.42</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -4315,8 +5035,23 @@
       <c r="W42">
         <v>-0.58</v>
       </c>
+      <c r="X42">
+        <v>-0.83</v>
+      </c>
+      <c r="Y42">
+        <v>73.88</v>
+      </c>
+      <c r="Z42">
+        <v>0.52</v>
+      </c>
       <c r="AC42" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4324,22 +5059,25 @@
       <c r="AG42">
         <v>4.902517318725586</v>
       </c>
-      <c r="AH42" t="s">
-        <v>146</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301213</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>13.48</v>
@@ -4357,7 +5095,7 @@
         <v>59954.55</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4398,8 +5136,23 @@
       <c r="W43">
         <v>2.16</v>
       </c>
+      <c r="X43">
+        <v>5</v>
+      </c>
+      <c r="Y43">
+        <v>72</v>
+      </c>
+      <c r="Z43">
+        <v>5.22</v>
+      </c>
       <c r="AC43" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4407,22 +5160,25 @@
       <c r="AG43">
         <v>3.439720630645752</v>
       </c>
-      <c r="AH43" t="s">
-        <v>146</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301217</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.84</v>
@@ -4440,7 +5196,7 @@
         <v>113591.26</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K44">
         <v>20</v>
@@ -4481,8 +5237,23 @@
       <c r="W44">
         <v>0.05</v>
       </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>25.7</v>
+      </c>
+      <c r="Z44">
+        <v>0.63</v>
+      </c>
       <c r="AC44" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4490,22 +5261,25 @@
       <c r="AG44">
         <v>7.501152515411377</v>
       </c>
-      <c r="AH44" t="s">
-        <v>146</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301235</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-7.24</v>
@@ -4523,7 +5297,7 @@
         <v>36429.71</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4564,8 +5338,23 @@
       <c r="W45">
         <v>0.39</v>
       </c>
+      <c r="X45">
+        <v>-6.59</v>
+      </c>
+      <c r="Y45">
+        <v>32.01</v>
+      </c>
+      <c r="Z45">
+        <v>-1.96</v>
+      </c>
       <c r="AC45" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4573,22 +5362,25 @@
       <c r="AG45">
         <v>1.807805299758911</v>
       </c>
-      <c r="AH45" t="s">
-        <v>146</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301285</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.69</v>
@@ -4606,7 +5398,7 @@
         <v>34393.92</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4647,8 +5439,23 @@
       <c r="W46">
         <v>-0.08</v>
       </c>
+      <c r="X46">
+        <v>-0.45</v>
+      </c>
+      <c r="Y46">
+        <v>42.5</v>
+      </c>
+      <c r="Z46">
+        <v>0.24</v>
+      </c>
       <c r="AC46" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4656,22 +5463,25 @@
       <c r="AG46">
         <v>6.437948703765869</v>
       </c>
-      <c r="AH46" t="s">
-        <v>146</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301306</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.61</v>
@@ -4689,7 +5499,7 @@
         <v>34481.52</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K47">
         <v>8</v>
@@ -4730,8 +5540,23 @@
       <c r="W47">
         <v>-0.04</v>
       </c>
+      <c r="X47">
+        <v>0.17</v>
+      </c>
+      <c r="Y47">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="Z47">
+        <v>1.96</v>
+      </c>
       <c r="AC47" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4739,22 +5564,25 @@
       <c r="AG47">
         <v>2.490448713302612</v>
       </c>
-      <c r="AH47" t="s">
-        <v>146</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301357</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.12</v>
@@ -4772,7 +5600,7 @@
         <v>111695.87</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4813,8 +5641,23 @@
       <c r="W48">
         <v>-3.59</v>
       </c>
+      <c r="X48">
+        <v>20</v>
+      </c>
+      <c r="Y48">
+        <v>114.78</v>
+      </c>
+      <c r="Z48">
+        <v>12.75</v>
+      </c>
       <c r="AC48" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4822,22 +5665,25 @@
       <c r="AG48">
         <v>1.170469522476196</v>
       </c>
-      <c r="AH48" t="s">
-        <v>146</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301372</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-7.37</v>
@@ -4855,7 +5701,7 @@
         <v>16328.21</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4896,8 +5742,23 @@
       <c r="W49">
         <v>-0.99</v>
       </c>
+      <c r="X49">
+        <v>1.56</v>
+      </c>
+      <c r="Y49">
+        <v>27.96</v>
+      </c>
+      <c r="Z49">
+        <v>-0.71</v>
+      </c>
       <c r="AC49" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4905,22 +5766,25 @@
       <c r="AG49">
         <v>2.236126184463501</v>
       </c>
-      <c r="AH49" t="s">
-        <v>146</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301377</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.29</v>
@@ -4938,7 +5802,7 @@
         <v>25691.34</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K50">
         <v>14</v>
@@ -4979,8 +5843,23 @@
       <c r="W50">
         <v>-0.66</v>
       </c>
+      <c r="X50">
+        <v>0.52</v>
+      </c>
+      <c r="Y50">
+        <v>52.37</v>
+      </c>
+      <c r="Z50">
+        <v>0.65</v>
+      </c>
       <c r="AC50" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4988,22 +5867,25 @@
       <c r="AG50">
         <v>3.298727989196777</v>
       </c>
-      <c r="AH50" t="s">
-        <v>146</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301389</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>14.4</v>
@@ -5021,7 +5903,7 @@
         <v>97733.12</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K51">
         <v>19</v>
@@ -5062,8 +5944,23 @@
       <c r="W51">
         <v>0.25</v>
       </c>
+      <c r="X51">
+        <v>20</v>
+      </c>
+      <c r="Y51">
+        <v>51.72</v>
+      </c>
+      <c r="Z51">
+        <v>17.55</v>
+      </c>
       <c r="AC51" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5071,22 +5968,25 @@
       <c r="AG51">
         <v>0.7940501570701599</v>
       </c>
-      <c r="AH51" t="s">
-        <v>146</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301393</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.28</v>
@@ -5104,7 +6004,7 @@
         <v>23866.2</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -5145,8 +6045,23 @@
       <c r="W52">
         <v>0.1</v>
       </c>
+      <c r="X52">
+        <v>0.32</v>
+      </c>
+      <c r="Y52">
+        <v>59.65</v>
+      </c>
+      <c r="Z52">
+        <v>-3.04</v>
+      </c>
       <c r="AC52" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5154,22 +6069,25 @@
       <c r="AG52">
         <v>11.76843452453613</v>
       </c>
-      <c r="AH52" t="s">
-        <v>146</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301489</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>6.6</v>
@@ -5187,7 +6105,7 @@
         <v>106249.27</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5228,8 +6146,23 @@
       <c r="W53">
         <v>-1.33</v>
       </c>
+      <c r="X53">
+        <v>12.02</v>
+      </c>
+      <c r="Y53">
+        <v>126</v>
+      </c>
+      <c r="Z53">
+        <v>14.03</v>
+      </c>
       <c r="AC53" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5237,22 +6170,25 @@
       <c r="AG53">
         <v>2.259113311767578</v>
       </c>
-      <c r="AH53" t="s">
-        <v>146</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301511</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.8100000000000001</v>
@@ -5270,7 +6206,7 @@
         <v>171635.96</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>29</v>
@@ -5311,8 +6247,23 @@
       <c r="W54">
         <v>0.15</v>
       </c>
+      <c r="X54">
+        <v>-1.01</v>
+      </c>
+      <c r="Y54">
+        <v>35.86</v>
+      </c>
+      <c r="Z54">
+        <v>-0.99</v>
+      </c>
       <c r="AC54" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5320,22 +6271,25 @@
       <c r="AG54">
         <v>4.790549755096436</v>
       </c>
-      <c r="AH54" t="s">
-        <v>146</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688020</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-5.39</v>
@@ -5353,7 +6307,7 @@
         <v>34936.37</v>
       </c>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5394,8 +6348,23 @@
       <c r="W55">
         <v>-0.23</v>
       </c>
+      <c r="X55">
+        <v>4.2</v>
+      </c>
+      <c r="Y55">
+        <v>57.62</v>
+      </c>
+      <c r="Z55">
+        <v>7.26</v>
+      </c>
       <c r="AC55" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5403,22 +6372,25 @@
       <c r="AG55">
         <v>6.186647415161133</v>
       </c>
-      <c r="AH55" t="s">
-        <v>146</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688039</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.79</v>
@@ -5436,7 +6408,7 @@
         <v>32267.43</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5477,8 +6449,23 @@
       <c r="W56">
         <v>-0.24</v>
       </c>
+      <c r="X56">
+        <v>2.25</v>
+      </c>
+      <c r="Y56">
+        <v>47.81</v>
+      </c>
+      <c r="Z56">
+        <v>7.32</v>
+      </c>
       <c r="AC56" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5486,22 +6473,25 @@
       <c r="AG56">
         <v>4.888923645019531</v>
       </c>
-      <c r="AH56" t="s">
-        <v>146</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688062</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>6.29</v>
@@ -5519,7 +6509,7 @@
         <v>69427.25999999999</v>
       </c>
       <c r="J57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5560,8 +6550,23 @@
       <c r="W57">
         <v>0.55</v>
       </c>
+      <c r="X57">
+        <v>-2.26</v>
+      </c>
+      <c r="Y57">
+        <v>36.34</v>
+      </c>
+      <c r="Z57">
+        <v>-0.93</v>
+      </c>
       <c r="AC57" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5569,22 +6574,25 @@
       <c r="AG57">
         <v>0.1465913206338882</v>
       </c>
-      <c r="AH57" t="s">
-        <v>146</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688110</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-5.59</v>
@@ -5602,7 +6610,7 @@
         <v>430489.5</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5643,8 +6651,23 @@
       <c r="W58">
         <v>-1.67</v>
       </c>
+      <c r="X58">
+        <v>20</v>
+      </c>
+      <c r="Y58">
+        <v>68.88</v>
+      </c>
+      <c r="Z58">
+        <v>12.66</v>
+      </c>
       <c r="AC58" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5652,22 +6675,25 @@
       <c r="AG58">
         <v>0.533517599105835</v>
       </c>
-      <c r="AH58" t="s">
-        <v>146</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688189</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.09</v>
@@ -5685,7 +6711,7 @@
         <v>75634.36</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5726,8 +6752,23 @@
       <c r="W59">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X59">
+        <v>-1.82</v>
+      </c>
+      <c r="Y59">
+        <v>17.28</v>
+      </c>
+      <c r="Z59">
+        <v>-2.21</v>
+      </c>
       <c r="AC59" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5735,22 +6776,25 @@
       <c r="AG59">
         <v>3.74905800819397</v>
       </c>
-      <c r="AH59" t="s">
-        <v>146</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688221</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>2.84</v>
@@ -5768,7 +6812,7 @@
         <v>56713.33</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -5809,8 +6853,23 @@
       <c r="W60">
         <v>0.05</v>
       </c>
+      <c r="X60">
+        <v>0.84</v>
+      </c>
+      <c r="Y60">
+        <v>22.08</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
       <c r="AC60" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5818,22 +6877,25 @@
       <c r="AG60">
         <v>0.747494101524353</v>
       </c>
-      <c r="AH60" t="s">
-        <v>146</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688258</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.22</v>
@@ -5851,7 +6913,7 @@
         <v>37416.18</v>
       </c>
       <c r="J61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5892,8 +6954,23 @@
       <c r="W61">
         <v>0.21</v>
       </c>
+      <c r="X61">
+        <v>12.08</v>
+      </c>
+      <c r="Y61">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="Z61">
+        <v>22.38</v>
+      </c>
       <c r="AC61" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5901,22 +6978,25 @@
       <c r="AG61">
         <v>4.477887630462646</v>
       </c>
-      <c r="AH61" t="s">
-        <v>146</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688448</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>19.73</v>
@@ -5934,7 +7014,7 @@
         <v>45994.93</v>
       </c>
       <c r="J62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -5975,8 +7055,23 @@
       <c r="W62">
         <v>1.65</v>
       </c>
+      <c r="X62">
+        <v>4.5</v>
+      </c>
+      <c r="Y62">
+        <v>41.8</v>
+      </c>
+      <c r="Z62">
+        <v>-5.64</v>
+      </c>
       <c r="AC62" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -5984,22 +7079,25 @@
       <c r="AG62">
         <v>3.326262474060059</v>
       </c>
-      <c r="AH62" t="s">
-        <v>147</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688556</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>3.35</v>
@@ -6017,7 +7115,7 @@
         <v>49999.91</v>
       </c>
       <c r="J63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6058,8 +7156,23 @@
       <c r="W63">
         <v>1.18</v>
       </c>
+      <c r="X63">
+        <v>0.38</v>
+      </c>
+      <c r="Y63">
+        <v>10.77</v>
+      </c>
+      <c r="Z63">
+        <v>-0.37</v>
+      </c>
       <c r="AC63" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>1</v>
@@ -6067,22 +7180,25 @@
       <c r="AG63">
         <v>9.721056938171387</v>
       </c>
-      <c r="AH63" t="s">
-        <v>146</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688603</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-2.73</v>
@@ -6100,7 +7216,7 @@
         <v>32060.4</v>
       </c>
       <c r="J64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6141,8 +7257,23 @@
       <c r="W64">
         <v>-0.79</v>
       </c>
+      <c r="X64">
+        <v>-1.94</v>
+      </c>
+      <c r="Y64">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>5.31</v>
+      </c>
       <c r="AC64" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6150,22 +7281,25 @@
       <c r="AG64">
         <v>5.126383781433105</v>
       </c>
-      <c r="AH64" t="s">
-        <v>146</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688630</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-3.29</v>
@@ -6183,7 +7317,7 @@
         <v>81032.58</v>
       </c>
       <c r="J65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K65">
         <v>7</v>
@@ -6224,8 +7358,23 @@
       <c r="W65">
         <v>-0.41</v>
       </c>
+      <c r="X65">
+        <v>-2.54</v>
+      </c>
+      <c r="Y65">
+        <v>117.51</v>
+      </c>
+      <c r="Z65">
+        <v>-1.17</v>
+      </c>
       <c r="AC65" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6233,22 +7382,25 @@
       <c r="AG65">
         <v>3.897814035415649</v>
       </c>
-      <c r="AH65" t="s">
-        <v>146</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688660</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>5.41</v>
@@ -6266,7 +7418,7 @@
         <v>69970.05</v>
       </c>
       <c r="J66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K66">
         <v>8</v>
@@ -6307,8 +7459,23 @@
       <c r="W66">
         <v>-0.09</v>
       </c>
+      <c r="X66">
+        <v>-3.73</v>
+      </c>
+      <c r="Y66">
+        <v>15.12</v>
+      </c>
+      <c r="Z66">
+        <v>2.02</v>
+      </c>
       <c r="AC66" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6316,22 +7483,25 @@
       <c r="AG66">
         <v>10.27730369567871</v>
       </c>
-      <c r="AH66" t="s">
-        <v>146</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688668</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-5.82</v>
@@ -6349,7 +7519,7 @@
         <v>67220.13</v>
       </c>
       <c r="J67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -6390,8 +7560,23 @@
       <c r="W67">
         <v>-0.13</v>
       </c>
+      <c r="X67">
+        <v>0.36</v>
+      </c>
+      <c r="Y67">
+        <v>92.26000000000001</v>
+      </c>
+      <c r="Z67">
+        <v>2.15</v>
+      </c>
       <c r="AC67" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6399,8 +7584,11 @@
       <c r="AG67">
         <v>11.12942123413086</v>
       </c>
-      <c r="AH67" t="s">
-        <v>146</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
